--- a/R/DATA/CBS/cbs_munic_codes.xlsx
+++ b/R/DATA/CBS/cbs_munic_codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t xml:space="preserve">Gemeentecode</t>
   </si>
@@ -23,9 +23,6 @@
     <t xml:space="preserve">Aa en Hunze</t>
   </si>
   <si>
-    <t xml:space="preserve">Aalburg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aalsmeer</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
     <t xml:space="preserve">Alphen-Chaam</t>
   </si>
   <si>
+    <t xml:space="preserve">Altena</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ameland</t>
   </si>
   <si>
@@ -71,9 +71,6 @@
     <t xml:space="preserve">Apeldoorn</t>
   </si>
   <si>
-    <t xml:space="preserve">Appingedam</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arnhem</t>
   </si>
   <si>
@@ -95,21 +92,15 @@
     <t xml:space="preserve">Barneveld</t>
   </si>
   <si>
-    <t xml:space="preserve">Bedum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beek</t>
   </si>
   <si>
-    <t xml:space="preserve">Beemster</t>
+    <t xml:space="preserve">Beekdaelen</t>
   </si>
   <si>
     <t xml:space="preserve">Beesel</t>
   </si>
   <si>
-    <t xml:space="preserve">Bellingwedde</t>
-  </si>
-  <si>
     <t xml:space="preserve">Berg en Dal</t>
   </si>
   <si>
@@ -140,15 +131,9 @@
     <t xml:space="preserve">Beverwijk</t>
   </si>
   <si>
-    <t xml:space="preserve">het Bildt</t>
-  </si>
-  <si>
     <t xml:space="preserve">De Bilt</t>
   </si>
   <si>
-    <t xml:space="preserve">Binnenmaas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bladel</t>
   </si>
   <si>
@@ -164,9 +149,6 @@
     <t xml:space="preserve">Boekel</t>
   </si>
   <si>
-    <t xml:space="preserve">Ten Boer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Borger-Odoorn</t>
   </si>
   <si>
@@ -176,9 +158,6 @@
     <t xml:space="preserve">Borsele</t>
   </si>
   <si>
-    <t xml:space="preserve">Boxmeer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Boxtel</t>
   </si>
   <si>
@@ -218,12 +197,6 @@
     <t xml:space="preserve">Cranendonck</t>
   </si>
   <si>
-    <t xml:space="preserve">Cromstrijen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuijk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Culemborg</t>
   </si>
   <si>
@@ -236,9 +209,6 @@
     <t xml:space="preserve">Delft</t>
   </si>
   <si>
-    <t xml:space="preserve">Delfzijl</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deurne</t>
   </si>
   <si>
@@ -248,6 +218,9 @@
     <t xml:space="preserve">Diemen</t>
   </si>
   <si>
+    <t xml:space="preserve">Dijk en Waard</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dinkelland</t>
   </si>
   <si>
@@ -260,9 +233,6 @@
     <t xml:space="preserve">Dongen</t>
   </si>
   <si>
-    <t xml:space="preserve">Dongeradeel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dordrecht</t>
   </si>
   <si>
@@ -293,7 +263,7 @@
     <t xml:space="preserve">Eemnes</t>
   </si>
   <si>
-    <t xml:space="preserve">Eemsmond</t>
+    <t xml:space="preserve">Eemsdelta</t>
   </si>
   <si>
     <t xml:space="preserve">Eersel</t>
@@ -326,21 +296,12 @@
     <t xml:space="preserve">Etten-Leur</t>
   </si>
   <si>
-    <t xml:space="preserve">Ferwerderadiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franekeradeel</t>
-  </si>
-  <si>
     <t xml:space="preserve">De Fryske Marren</t>
   </si>
   <si>
     <t xml:space="preserve">Geertruidenberg</t>
   </si>
   <si>
-    <t xml:space="preserve">Geldermalsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Geldrop-Mierlo</t>
   </si>
   <si>
@@ -350,9 +311,6 @@
     <t xml:space="preserve">Gennep</t>
   </si>
   <si>
-    <t xml:space="preserve">Giessenlanden</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gilze en Rijen</t>
   </si>
   <si>
@@ -374,33 +332,21 @@
     <t xml:space="preserve">Gouda</t>
   </si>
   <si>
-    <t xml:space="preserve">Grave</t>
-  </si>
-  <si>
     <t xml:space="preserve">'s-Gravenhage</t>
   </si>
   <si>
     <t xml:space="preserve">Groningen</t>
   </si>
   <si>
-    <t xml:space="preserve">Grootegast</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gulpen-Wittem</t>
   </si>
   <si>
     <t xml:space="preserve">Haaksbergen</t>
   </si>
   <si>
-    <t xml:space="preserve">Haaren</t>
-  </si>
-  <si>
     <t xml:space="preserve">Haarlem</t>
   </si>
   <si>
-    <t xml:space="preserve">Haarlemmerliede en Spaarnwoude</t>
-  </si>
-  <si>
     <t xml:space="preserve">Haarlemmermeer</t>
   </si>
   <si>
@@ -416,9 +362,6 @@
     <t xml:space="preserve">Hardinxveld-Giessendam</t>
   </si>
   <si>
-    <t xml:space="preserve">Haren</t>
-  </si>
-  <si>
     <t xml:space="preserve">Harlingen</t>
   </si>
   <si>
@@ -437,9 +380,6 @@
     <t xml:space="preserve">Heerenveen</t>
   </si>
   <si>
-    <t xml:space="preserve">Heerhugowaard</t>
-  </si>
-  <si>
     <t xml:space="preserve">Heerlen</t>
   </si>
   <si>
@@ -485,18 +425,21 @@
     <t xml:space="preserve">Hilversum</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoeksche Waard</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hof van Twente</t>
   </si>
   <si>
+    <t xml:space="preserve">Het Hogeland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hollands Kroon</t>
   </si>
   <si>
     <t xml:space="preserve">Hoogeveen</t>
   </si>
   <si>
-    <t xml:space="preserve">Hoogezand-Sappemeer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hoorn</t>
   </si>
   <si>
@@ -533,12 +476,6 @@
     <t xml:space="preserve">Koggenland</t>
   </si>
   <si>
-    <t xml:space="preserve">Kollumerland en Nieuwkruisland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korendijk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Krimpen aan den IJssel</t>
   </si>
   <si>
@@ -548,7 +485,7 @@
     <t xml:space="preserve">Laarbeek</t>
   </si>
   <si>
-    <t xml:space="preserve">Landerd</t>
+    <t xml:space="preserve">Land van Cuijk</t>
   </si>
   <si>
     <t xml:space="preserve">Landgraaf</t>
@@ -557,27 +494,15 @@
     <t xml:space="preserve">Landsmeer</t>
   </si>
   <si>
-    <t xml:space="preserve">Langedijk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lansingerland</t>
   </si>
   <si>
     <t xml:space="preserve">Laren</t>
   </si>
   <si>
-    <t xml:space="preserve">Leek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leerdam</t>
-  </si>
-  <si>
     <t xml:space="preserve">Leeuwarden</t>
   </si>
   <si>
-    <t xml:space="preserve">Leeuwarderadeel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Leiden</t>
   </si>
   <si>
@@ -596,18 +521,12 @@
     <t xml:space="preserve">Leusden</t>
   </si>
   <si>
-    <t xml:space="preserve">Lingewaal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lingewaard</t>
   </si>
   <si>
     <t xml:space="preserve">Lisse</t>
   </si>
   <si>
-    <t xml:space="preserve">Littenseradiel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lochem</t>
   </si>
   <si>
@@ -617,9 +536,6 @@
     <t xml:space="preserve">Lopik</t>
   </si>
   <si>
-    <t xml:space="preserve">Loppersum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Losser</t>
   </si>
   <si>
@@ -629,18 +545,15 @@
     <t xml:space="preserve">Maasgouw</t>
   </si>
   <si>
+    <t xml:space="preserve">Maashorst</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maassluis</t>
   </si>
   <si>
     <t xml:space="preserve">Maastricht</t>
   </si>
   <si>
-    <t xml:space="preserve">De Marne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Medemblik</t>
   </si>
   <si>
@@ -650,12 +563,6 @@
     <t xml:space="preserve">Meierijstad</t>
   </si>
   <si>
-    <t xml:space="preserve">Menameradiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menterwolde</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meppel</t>
   </si>
   <si>
@@ -668,13 +575,13 @@
     <t xml:space="preserve">Midden-Drenthe</t>
   </si>
   <si>
-    <t xml:space="preserve">Mill en Sint Hubert</t>
+    <t xml:space="preserve">Midden-Groningen</t>
   </si>
   <si>
     <t xml:space="preserve">Moerdijk</t>
   </si>
   <si>
-    <t xml:space="preserve">Molenwaard</t>
+    <t xml:space="preserve">Molenlanden</t>
   </si>
   <si>
     <t xml:space="preserve">Montferland</t>
@@ -692,9 +599,6 @@
     <t xml:space="preserve">Nederweert</t>
   </si>
   <si>
-    <t xml:space="preserve">Neerijnen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nieuwegein</t>
   </si>
   <si>
@@ -710,6 +614,9 @@
     <t xml:space="preserve">Nissewaard</t>
   </si>
   <si>
+    <t xml:space="preserve">Noardeast-FryslÃ¢n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Noord-Beveland</t>
   </si>
   <si>
@@ -722,18 +629,12 @@
     <t xml:space="preserve">Noordwijk</t>
   </si>
   <si>
-    <t xml:space="preserve">Noordwijkerhout</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nuenen, Gerwen en Nederwetten</t>
   </si>
   <si>
     <t xml:space="preserve">Nunspeet</t>
   </si>
   <si>
-    <t xml:space="preserve">Nuth</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oegstgeest</t>
   </si>
   <si>
@@ -758,9 +659,6 @@
     <t xml:space="preserve">Ommen</t>
   </si>
   <si>
-    <t xml:space="preserve">Onderbanken</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oost Gelre</t>
   </si>
   <si>
@@ -782,9 +680,6 @@
     <t xml:space="preserve">Oss</t>
   </si>
   <si>
-    <t xml:space="preserve">Oud-Beijerland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oude IJsselstreek</t>
   </si>
   <si>
@@ -839,9 +734,6 @@
     <t xml:space="preserve">Ridderkerk</t>
   </si>
   <si>
-    <t xml:space="preserve">Rijnwaarden</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rijssen-Holten</t>
   </si>
   <si>
@@ -881,18 +773,12 @@
     <t xml:space="preserve">Schiermonnikoog</t>
   </si>
   <si>
-    <t xml:space="preserve">Schinnen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Schouwen-Duiveland</t>
   </si>
   <si>
     <t xml:space="preserve">Simpelveld</t>
   </si>
   <si>
-    <t xml:space="preserve">Sint Anthonis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sint-Michielsgestel</t>
   </si>
   <si>
@@ -902,9 +788,6 @@
     <t xml:space="preserve">Sliedrecht</t>
   </si>
   <si>
-    <t xml:space="preserve">Slochteren</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sluis</t>
   </si>
   <si>
@@ -941,9 +824,6 @@
     <t xml:space="preserve">Stichtse Vecht</t>
   </si>
   <si>
-    <t xml:space="preserve">Strijen</t>
-  </si>
-  <si>
     <t xml:space="preserve">SÃºdwest-FryslÃ¢n</t>
   </si>
   <si>
@@ -980,9 +860,6 @@
     <t xml:space="preserve">Tytsjerksteradiel</t>
   </si>
   <si>
-    <t xml:space="preserve">Uden</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uitgeest</t>
   </si>
   <si>
@@ -1028,15 +905,12 @@
     <t xml:space="preserve">Venray</t>
   </si>
   <si>
-    <t xml:space="preserve">Vianen</t>
+    <t xml:space="preserve">Vijfheerenlanden</t>
   </si>
   <si>
     <t xml:space="preserve">Vlaardingen</t>
   </si>
   <si>
-    <t xml:space="preserve">Vlagtwedde</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vlieland</t>
   </si>
   <si>
@@ -1055,6 +929,9 @@
     <t xml:space="preserve">Vught</t>
   </si>
   <si>
+    <t xml:space="preserve">Waadhoeke</t>
+  </si>
+  <si>
     <t xml:space="preserve">Waalre</t>
   </si>
   <si>
@@ -1079,18 +956,24 @@
     <t xml:space="preserve">Weesp</t>
   </si>
   <si>
-    <t xml:space="preserve">Werkendam</t>
+    <t xml:space="preserve">West Betuwe</t>
   </si>
   <si>
     <t xml:space="preserve">West Maas en Waal</t>
   </si>
   <si>
+    <t xml:space="preserve">Westerkwartier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Westerveld</t>
   </si>
   <si>
     <t xml:space="preserve">Westervoort</t>
   </si>
   <si>
+    <t xml:space="preserve">Westerwolde</t>
+  </si>
+  <si>
     <t xml:space="preserve">Westland</t>
   </si>
   <si>
@@ -1112,9 +995,6 @@
     <t xml:space="preserve">Wijk bij Duurstede</t>
   </si>
   <si>
-    <t xml:space="preserve">Winsum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Winterswijk</t>
   </si>
   <si>
@@ -1133,9 +1013,6 @@
     <t xml:space="preserve">Woudenberg</t>
   </si>
   <si>
-    <t xml:space="preserve">Woudrichem</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zaanstad</t>
   </si>
   <si>
@@ -1145,9 +1022,6 @@
     <t xml:space="preserve">Zandvoort</t>
   </si>
   <si>
-    <t xml:space="preserve">Zederik</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zeewolde</t>
   </si>
   <si>
@@ -1161,9 +1035,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zoeterwoude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zuidhorn</t>
   </si>
   <si>
     <t xml:space="preserve">Zuidplas</t>
@@ -1531,7 +1402,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>738</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1539,7 +1410,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>358</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1547,7 +1418,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1555,7 +1426,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1563,7 +1434,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>482</v>
+        <v>613</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1571,7 +1442,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>613</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1579,7 +1450,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>361</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1587,7 +1458,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1595,7 +1466,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1603,7 +1474,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>484</v>
+        <v>1723</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1611,7 +1482,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1723</v>
+        <v>1959</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1659,7 +1530,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1667,7 +1538,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1675,7 +1546,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>106</v>
+        <v>743</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1683,7 +1554,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1691,7 +1562,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>744</v>
+        <v>308</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -1699,7 +1570,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>308</v>
+        <v>489</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -1707,7 +1578,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>489</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -1715,7 +1586,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>203</v>
+        <v>888</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -1723,7 +1594,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>1954</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -1731,7 +1602,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -1739,7 +1610,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>370</v>
+        <v>1945</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -1747,7 +1618,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>889</v>
+        <v>1724</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -1755,7 +1626,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7</v>
+        <v>893</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -1763,7 +1634,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1945</v>
+        <v>373</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -1771,7 +1642,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1724</v>
+        <v>748</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -1779,7 +1650,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>893</v>
+        <v>1859</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -1787,7 +1658,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>373</v>
+        <v>1721</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -1795,7 +1666,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -1803,7 +1674,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1859</v>
+        <v>209</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -1811,7 +1682,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1721</v>
+        <v>375</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -1819,7 +1690,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>753</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -1827,7 +1698,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>209</v>
+        <v>1728</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
@@ -1835,7 +1706,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
@@ -1843,7 +1714,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>63</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -1851,7 +1722,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>310</v>
+        <v>1901</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -1859,7 +1730,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>585</v>
+        <v>755</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -1867,7 +1738,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1728</v>
+        <v>1681</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
@@ -1875,7 +1746,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>376</v>
+        <v>147</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
@@ -1883,7 +1754,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>377</v>
+        <v>654</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
@@ -1891,7 +1762,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1901</v>
+        <v>757</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
@@ -1899,7 +1770,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
@@ -1907,7 +1778,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9</v>
+        <v>501</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
@@ -1915,7 +1786,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1681</v>
+        <v>1876</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
@@ -1923,7 +1794,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
@@ -1931,7 +1802,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>654</v>
+        <v>899</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
@@ -1939,7 +1810,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>756</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
@@ -1947,7 +1818,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>757</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
@@ -1955,7 +1826,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>758</v>
+        <v>214</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
@@ -1963,7 +1834,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
@@ -1971,7 +1842,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1876</v>
+        <v>383</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
@@ -1979,7 +1850,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
@@ -1987,7 +1858,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>899</v>
+        <v>1706</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -1995,7 +1866,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
@@ -2003,7 +1874,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
@@ -2011,7 +1882,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>214</v>
+        <v>1891</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
@@ -2019,7 +1890,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
@@ -2027,7 +1898,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>383</v>
+        <v>762</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
@@ -2035,7 +1906,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
@@ -2043,7 +1914,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1706</v>
+        <v>384</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
@@ -2051,7 +1922,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>611</v>
+        <v>1980</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
@@ -2059,7 +1930,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1684</v>
+        <v>1774</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
@@ -2067,7 +1938,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
@@ -2075,7 +1946,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
@@ -2083,7 +1954,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1891</v>
+        <v>766</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
@@ -2091,7 +1962,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
@@ -2099,7 +1970,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>10</v>
+        <v>498</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
@@ -2107,7 +1978,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>762</v>
+        <v>1719</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
@@ -2115,7 +1986,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="B76" t="s">
         <v>76</v>
@@ -2123,7 +1994,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>384</v>
+        <v>225</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
@@ -2131,7 +2002,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1774</v>
+        <v>226</v>
       </c>
       <c r="B78" t="s">
         <v>78</v>
@@ -2139,7 +2010,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>221</v>
+        <v>1711</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
@@ -2147,7 +2018,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>222</v>
+        <v>385</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
@@ -2155,7 +2026,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>766</v>
+        <v>228</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
@@ -2163,7 +2034,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>58</v>
+        <v>317</v>
       </c>
       <c r="B82" t="s">
         <v>82</v>
@@ -2171,7 +2042,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>505</v>
+        <v>1979</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
@@ -2179,7 +2050,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>498</v>
+        <v>770</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
@@ -2187,7 +2058,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1719</v>
+        <v>1903</v>
       </c>
       <c r="B85" t="s">
         <v>85</v>
@@ -2195,7 +2066,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>303</v>
+        <v>772</v>
       </c>
       <c r="B86" t="s">
         <v>86</v>
@@ -2203,7 +2074,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
@@ -2211,7 +2082,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="B88" t="s">
         <v>88</v>
@@ -2219,7 +2090,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1711</v>
+        <v>388</v>
       </c>
       <c r="B89" t="s">
         <v>89</v>
@@ -2227,7 +2098,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>385</v>
+        <v>153</v>
       </c>
       <c r="B90" t="s">
         <v>90</v>
@@ -2235,7 +2106,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B91" t="s">
         <v>91</v>
@@ -2243,7 +2114,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>317</v>
+        <v>233</v>
       </c>
       <c r="B92" t="s">
         <v>92</v>
@@ -2251,7 +2122,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1651</v>
+        <v>777</v>
       </c>
       <c r="B93" t="s">
         <v>93</v>
@@ -2259,7 +2130,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>770</v>
+        <v>1940</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
@@ -2267,7 +2138,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1903</v>
+        <v>779</v>
       </c>
       <c r="B95" t="s">
         <v>95</v>
@@ -2275,7 +2146,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>772</v>
+        <v>1771</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
@@ -2283,7 +2154,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>230</v>
+        <v>1652</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
@@ -2291,7 +2162,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>114</v>
+        <v>907</v>
       </c>
       <c r="B98" t="s">
         <v>98</v>
@@ -2299,7 +2170,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>388</v>
+        <v>784</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
@@ -2307,7 +2178,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>153</v>
+        <v>1924</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
@@ -2315,7 +2186,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>232</v>
+        <v>664</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
@@ -2323,7 +2194,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>233</v>
+        <v>785</v>
       </c>
       <c r="B102" t="s">
         <v>102</v>
@@ -2331,7 +2202,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>777</v>
+        <v>1942</v>
       </c>
       <c r="B103" t="s">
         <v>103</v>
@@ -2339,7 +2210,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1722</v>
+        <v>512</v>
       </c>
       <c r="B104" t="s">
         <v>104</v>
@@ -2347,7 +2218,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>70</v>
+        <v>513</v>
       </c>
       <c r="B105" t="s">
         <v>105</v>
@@ -2355,7 +2226,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1940</v>
+        <v>518</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
@@ -2363,7 +2234,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>779</v>
+        <v>14</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
@@ -2371,7 +2242,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>236</v>
+        <v>1729</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
@@ -2379,7 +2250,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1771</v>
+        <v>158</v>
       </c>
       <c r="B109" t="s">
         <v>109</v>
@@ -2387,7 +2258,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1652</v>
+        <v>392</v>
       </c>
       <c r="B110" t="s">
         <v>110</v>
@@ -2395,7 +2266,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>907</v>
+        <v>394</v>
       </c>
       <c r="B111" t="s">
         <v>111</v>
@@ -2403,7 +2274,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>689</v>
+        <v>1655</v>
       </c>
       <c r="B112" t="s">
         <v>112</v>
@@ -2411,7 +2282,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>784</v>
+        <v>160</v>
       </c>
       <c r="B113" t="s">
         <v>113</v>
@@ -2419,7 +2290,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1924</v>
+        <v>243</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
@@ -2427,7 +2298,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>664</v>
+        <v>523</v>
       </c>
       <c r="B115" t="s">
         <v>115</v>
@@ -2435,7 +2306,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>785</v>
+        <v>72</v>
       </c>
       <c r="B116" t="s">
         <v>116</v>
@@ -2443,7 +2314,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1942</v>
+        <v>244</v>
       </c>
       <c r="B117" t="s">
         <v>117</v>
@@ -2451,7 +2322,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>512</v>
+        <v>396</v>
       </c>
       <c r="B118" t="s">
         <v>118</v>
@@ -2459,7 +2330,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>513</v>
+        <v>397</v>
       </c>
       <c r="B119" t="s">
         <v>119</v>
@@ -2467,7 +2338,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>786</v>
+        <v>246</v>
       </c>
       <c r="B120" t="s">
         <v>120</v>
@@ -2475,7 +2346,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>518</v>
+        <v>74</v>
       </c>
       <c r="B121" t="s">
         <v>121</v>
@@ -2483,7 +2354,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>14</v>
+        <v>917</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
@@ -2491,7 +2362,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>15</v>
+        <v>1658</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
@@ -2499,7 +2370,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1729</v>
+        <v>399</v>
       </c>
       <c r="B124" t="s">
         <v>124</v>
@@ -2507,7 +2378,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>158</v>
+        <v>400</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
@@ -2515,7 +2386,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>788</v>
+        <v>163</v>
       </c>
       <c r="B126" t="s">
         <v>126</v>
@@ -2523,7 +2394,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>392</v>
+        <v>530</v>
       </c>
       <c r="B127" t="s">
         <v>127</v>
@@ -2531,7 +2402,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>393</v>
+        <v>794</v>
       </c>
       <c r="B128" t="s">
         <v>128</v>
@@ -2539,7 +2410,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>394</v>
+        <v>531</v>
       </c>
       <c r="B129" t="s">
         <v>129</v>
@@ -2547,7 +2418,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1655</v>
+        <v>164</v>
       </c>
       <c r="B130" t="s">
         <v>130</v>
@@ -2555,7 +2426,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>160</v>
+        <v>796</v>
       </c>
       <c r="B131" t="s">
         <v>131</v>
@@ -2563,7 +2434,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B132" t="s">
         <v>132</v>
@@ -2571,7 +2442,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>523</v>
+        <v>797</v>
       </c>
       <c r="B133" t="s">
         <v>133</v>
@@ -2579,7 +2450,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>17</v>
+        <v>534</v>
       </c>
       <c r="B134" t="s">
         <v>134</v>
@@ -2587,7 +2458,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>72</v>
+        <v>798</v>
       </c>
       <c r="B135" t="s">
         <v>135</v>
@@ -2595,7 +2466,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>244</v>
+        <v>402</v>
       </c>
       <c r="B136" t="s">
         <v>136</v>
@@ -2603,7 +2474,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>396</v>
+        <v>1963</v>
       </c>
       <c r="B137" t="s">
         <v>137</v>
@@ -2611,7 +2482,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>397</v>
+        <v>1735</v>
       </c>
       <c r="B138" t="s">
         <v>138</v>
@@ -2619,7 +2490,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>246</v>
+        <v>1966</v>
       </c>
       <c r="B139" t="s">
         <v>139</v>
@@ -2627,7 +2498,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>74</v>
+        <v>1911</v>
       </c>
       <c r="B140" t="s">
         <v>140</v>
@@ -2635,7 +2506,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>398</v>
+        <v>118</v>
       </c>
       <c r="B141" t="s">
         <v>141</v>
@@ -2643,7 +2514,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>917</v>
+        <v>405</v>
       </c>
       <c r="B142" t="s">
         <v>142</v>
@@ -2651,7 +2522,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1658</v>
+        <v>1507</v>
       </c>
       <c r="B143" t="s">
         <v>143</v>
@@ -2659,7 +2530,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>399</v>
+        <v>321</v>
       </c>
       <c r="B144" t="s">
         <v>144</v>
@@ -2667,7 +2538,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
@@ -2675,7 +2546,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>163</v>
+        <v>677</v>
       </c>
       <c r="B146" t="s">
         <v>146</v>
@@ -2683,7 +2554,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>530</v>
+        <v>353</v>
       </c>
       <c r="B147" t="s">
         <v>147</v>
@@ -2691,7 +2562,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>794</v>
+        <v>1884</v>
       </c>
       <c r="B148" t="s">
         <v>148</v>
@@ -2699,7 +2570,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>531</v>
+        <v>166</v>
       </c>
       <c r="B149" t="s">
         <v>149</v>
@@ -2707,7 +2578,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>164</v>
+        <v>678</v>
       </c>
       <c r="B150" t="s">
         <v>150</v>
@@ -2715,7 +2586,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>796</v>
+        <v>537</v>
       </c>
       <c r="B151" t="s">
         <v>151</v>
@@ -2723,7 +2594,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>252</v>
+        <v>928</v>
       </c>
       <c r="B152" t="s">
         <v>152</v>
@@ -2731,7 +2602,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>797</v>
+        <v>1598</v>
       </c>
       <c r="B153" t="s">
         <v>153</v>
@@ -2739,7 +2610,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B154" t="s">
         <v>154</v>
@@ -2747,7 +2618,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>798</v>
+        <v>1931</v>
       </c>
       <c r="B155" t="s">
         <v>155</v>
@@ -2755,7 +2626,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>402</v>
+        <v>1659</v>
       </c>
       <c r="B156" t="s">
         <v>156</v>
@@ -2763,7 +2634,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1735</v>
+        <v>1982</v>
       </c>
       <c r="B157" t="s">
         <v>157</v>
@@ -2771,7 +2642,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1911</v>
+        <v>882</v>
       </c>
       <c r="B158" t="s">
         <v>158</v>
@@ -2779,7 +2650,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>118</v>
+        <v>415</v>
       </c>
       <c r="B159" t="s">
         <v>159</v>
@@ -2787,7 +2658,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>18</v>
+        <v>1621</v>
       </c>
       <c r="B160" t="s">
         <v>160</v>
@@ -2795,7 +2666,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B161" t="s">
         <v>161</v>
@@ -2803,7 +2674,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1507</v>
+        <v>80</v>
       </c>
       <c r="B162" t="s">
         <v>162</v>
@@ -2811,7 +2682,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>321</v>
+        <v>546</v>
       </c>
       <c r="B163" t="s">
         <v>163</v>
@@ -2819,7 +2690,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>406</v>
+        <v>547</v>
       </c>
       <c r="B164" t="s">
         <v>164</v>
@@ -2827,7 +2698,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>677</v>
+        <v>1916</v>
       </c>
       <c r="B165" t="s">
         <v>165</v>
@@ -2835,7 +2706,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>353</v>
+        <v>995</v>
       </c>
       <c r="B166" t="s">
         <v>166</v>
@@ -2843,7 +2714,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1884</v>
+        <v>1640</v>
       </c>
       <c r="B167" t="s">
         <v>167</v>
@@ -2851,7 +2722,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>166</v>
+        <v>327</v>
       </c>
       <c r="B168" t="s">
         <v>168</v>
@@ -2859,7 +2730,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>678</v>
+        <v>1705</v>
       </c>
       <c r="B169" t="s">
         <v>169</v>
@@ -2867,7 +2738,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="B170" t="s">
         <v>170</v>
@@ -2875,7 +2746,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>928</v>
+        <v>262</v>
       </c>
       <c r="B171" t="s">
         <v>171</v>
@@ -2883,7 +2754,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1598</v>
+        <v>809</v>
       </c>
       <c r="B172" t="s">
         <v>172</v>
@@ -2891,7 +2762,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="B173" t="s">
         <v>173</v>
@@ -2899,7 +2770,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>588</v>
+        <v>168</v>
       </c>
       <c r="B174" t="s">
         <v>174</v>
@@ -2907,7 +2778,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>542</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>175</v>
@@ -2915,7 +2786,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1931</v>
+        <v>1641</v>
       </c>
       <c r="B176" t="s">
         <v>176</v>
@@ -2923,7 +2794,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1659</v>
+        <v>1991</v>
       </c>
       <c r="B177" t="s">
         <v>177</v>
@@ -2931,7 +2802,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1685</v>
+        <v>556</v>
       </c>
       <c r="B178" t="s">
         <v>178</v>
@@ -2939,7 +2810,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>882</v>
+        <v>935</v>
       </c>
       <c r="B179" t="s">
         <v>179</v>
@@ -2947,7 +2818,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B180" t="s">
         <v>180</v>
@@ -2955,7 +2826,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>416</v>
+        <v>938</v>
       </c>
       <c r="B181" t="s">
         <v>181</v>
@@ -2963,7 +2834,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1621</v>
+        <v>1948</v>
       </c>
       <c r="B182" t="s">
         <v>182</v>
@@ -2971,7 +2842,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>417</v>
+        <v>119</v>
       </c>
       <c r="B183" t="s">
         <v>183</v>
@@ -2979,7 +2850,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>22</v>
+        <v>687</v>
       </c>
       <c r="B184" t="s">
         <v>184</v>
@@ -2987,7 +2858,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>545</v>
+        <v>1842</v>
       </c>
       <c r="B185" t="s">
         <v>185</v>
@@ -2995,7 +2866,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>80</v>
+        <v>1731</v>
       </c>
       <c r="B186" t="s">
         <v>186</v>
@@ -3003,7 +2874,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>81</v>
+        <v>1952</v>
       </c>
       <c r="B187" t="s">
         <v>187</v>
@@ -3011,7 +2882,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>546</v>
+        <v>1709</v>
       </c>
       <c r="B188" t="s">
         <v>188</v>
@@ -3019,7 +2890,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>547</v>
+        <v>1978</v>
       </c>
       <c r="B189" t="s">
         <v>189</v>
@@ -3027,7 +2898,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1916</v>
+        <v>1955</v>
       </c>
       <c r="B190" t="s">
         <v>190</v>
@@ -3035,7 +2906,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>995</v>
+        <v>335</v>
       </c>
       <c r="B191" t="s">
         <v>191</v>
@@ -3043,7 +2914,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1640</v>
+        <v>944</v>
       </c>
       <c r="B192" t="s">
         <v>192</v>
@@ -3051,7 +2922,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>327</v>
+        <v>1740</v>
       </c>
       <c r="B193" t="s">
         <v>193</v>
@@ -3059,7 +2930,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>733</v>
+        <v>946</v>
       </c>
       <c r="B194" t="s">
         <v>194</v>
@@ -3067,7 +2938,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1705</v>
+        <v>356</v>
       </c>
       <c r="B195" t="s">
         <v>195</v>
@@ -3075,7 +2946,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="B196" t="s">
         <v>196</v>
@@ -3083,7 +2954,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="B197" t="s">
         <v>197</v>
@@ -3091,7 +2962,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B198" t="s">
         <v>198</v>
@@ -3099,7 +2970,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>809</v>
+        <v>1930</v>
       </c>
       <c r="B199" t="s">
         <v>199</v>
@@ -3107,7 +2978,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>331</v>
+        <v>1970</v>
       </c>
       <c r="B200" t="s">
         <v>200</v>
@@ -3115,7 +2986,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>24</v>
+        <v>1695</v>
       </c>
       <c r="B201" t="s">
         <v>201</v>
@@ -3123,7 +2994,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>168</v>
+        <v>1699</v>
       </c>
       <c r="B202" t="s">
         <v>202</v>
@@ -3131,7 +3002,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="B203" t="s">
         <v>203</v>
@@ -3139,7 +3010,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1641</v>
+        <v>575</v>
       </c>
       <c r="B204" t="s">
         <v>204</v>
@@ -3147,7 +3018,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>556</v>
+        <v>820</v>
       </c>
       <c r="B205" t="s">
         <v>205</v>
@@ -3155,7 +3026,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>935</v>
+        <v>302</v>
       </c>
       <c r="B206" t="s">
         <v>206</v>
@@ -3163,7 +3034,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1663</v>
+        <v>579</v>
       </c>
       <c r="B207" t="s">
         <v>207</v>
@@ -3171,7 +3042,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>25</v>
+        <v>823</v>
       </c>
       <c r="B208" t="s">
         <v>208</v>
@@ -3179,7 +3050,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>420</v>
+        <v>824</v>
       </c>
       <c r="B209" t="s">
         <v>209</v>
@@ -3187,7 +3058,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>938</v>
+        <v>1895</v>
       </c>
       <c r="B210" t="s">
         <v>210</v>
@@ -3195,7 +3066,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1948</v>
+        <v>269</v>
       </c>
       <c r="B211" t="s">
         <v>211</v>
@@ -3203,7 +3074,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1908</v>
+        <v>173</v>
       </c>
       <c r="B212" t="s">
         <v>212</v>
@@ -3211,7 +3082,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1987</v>
+        <v>1773</v>
       </c>
       <c r="B213" t="s">
         <v>213</v>
@@ -3219,7 +3090,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="B214" t="s">
         <v>214</v>
@@ -3227,7 +3098,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>687</v>
+        <v>1586</v>
       </c>
       <c r="B215" t="s">
         <v>215</v>
@@ -3235,7 +3106,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1842</v>
+        <v>826</v>
       </c>
       <c r="B216" t="s">
         <v>216</v>
@@ -3243,7 +3114,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1731</v>
+        <v>85</v>
       </c>
       <c r="B217" t="s">
         <v>217</v>
@@ -3251,7 +3122,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>815</v>
+        <v>431</v>
       </c>
       <c r="B218" t="s">
         <v>218</v>
@@ -3259,7 +3130,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1709</v>
+        <v>432</v>
       </c>
       <c r="B219" t="s">
         <v>219</v>
@@ -3267,7 +3138,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1927</v>
+        <v>86</v>
       </c>
       <c r="B220" t="s">
         <v>220</v>
@@ -3275,7 +3146,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1955</v>
+        <v>828</v>
       </c>
       <c r="B221" t="s">
         <v>221</v>
@@ -3283,7 +3154,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>335</v>
+        <v>1509</v>
       </c>
       <c r="B222" t="s">
         <v>222</v>
@@ -3291,7 +3162,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>944</v>
+        <v>437</v>
       </c>
       <c r="B223" t="s">
         <v>223</v>
@@ -3299,7 +3170,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1740</v>
+        <v>589</v>
       </c>
       <c r="B224" t="s">
         <v>224</v>
@@ -3307,7 +3178,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>946</v>
+        <v>1734</v>
       </c>
       <c r="B225" t="s">
         <v>225</v>
@@ -3315,7 +3186,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>304</v>
+        <v>590</v>
       </c>
       <c r="B226" t="s">
         <v>226</v>
@@ -3323,7 +3194,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>356</v>
+        <v>1894</v>
       </c>
       <c r="B227" t="s">
         <v>227</v>
@@ -3331,7 +3202,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>569</v>
+        <v>765</v>
       </c>
       <c r="B228" t="s">
         <v>228</v>
@@ -3339,7 +3210,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>267</v>
+        <v>1926</v>
       </c>
       <c r="B229" t="s">
         <v>229</v>
@@ -3347,7 +3218,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>268</v>
+        <v>439</v>
       </c>
       <c r="B230" t="s">
         <v>230</v>
@@ -3355,7 +3226,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1930</v>
+        <v>273</v>
       </c>
       <c r="B231" t="s">
         <v>231</v>
@@ -3363,7 +3234,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1695</v>
+        <v>177</v>
       </c>
       <c r="B232" t="s">
         <v>232</v>
@@ -3371,7 +3242,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1699</v>
+        <v>703</v>
       </c>
       <c r="B233" t="s">
         <v>233</v>
@@ -3379,7 +3250,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="B234" t="s">
         <v>234</v>
@@ -3387,7 +3258,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>575</v>
+        <v>339</v>
       </c>
       <c r="B235" t="s">
         <v>235</v>
@@ -3395,7 +3266,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>576</v>
+        <v>1667</v>
       </c>
       <c r="B236" t="s">
         <v>236</v>
@@ -3403,7 +3274,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>820</v>
+        <v>275</v>
       </c>
       <c r="B237" t="s">
         <v>237</v>
@@ -3411,7 +3282,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="B238" t="s">
         <v>238</v>
@@ -3419,7 +3290,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>951</v>
+        <v>597</v>
       </c>
       <c r="B239" t="s">
         <v>239</v>
@@ -3427,7 +3298,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>579</v>
+        <v>1742</v>
       </c>
       <c r="B240" t="s">
         <v>240</v>
@@ -3435,7 +3306,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>823</v>
+        <v>603</v>
       </c>
       <c r="B241" t="s">
         <v>241</v>
@@ -3443,7 +3314,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>824</v>
+        <v>1669</v>
       </c>
       <c r="B242" t="s">
         <v>242</v>
@@ -3451,7 +3322,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1895</v>
+        <v>957</v>
       </c>
       <c r="B243" t="s">
         <v>243</v>
@@ -3459,7 +3330,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>269</v>
+        <v>736</v>
       </c>
       <c r="B244" t="s">
         <v>244</v>
@@ -3467,7 +3338,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>173</v>
+        <v>1674</v>
       </c>
       <c r="B245" t="s">
         <v>245</v>
@@ -3475,7 +3346,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1773</v>
+        <v>599</v>
       </c>
       <c r="B246" t="s">
         <v>246</v>
@@ -3483,7 +3354,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>175</v>
+        <v>277</v>
       </c>
       <c r="B247" t="s">
         <v>247</v>
@@ -3491,7 +3362,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>881</v>
+        <v>840</v>
       </c>
       <c r="B248" t="s">
         <v>248</v>
@@ -3499,7 +3370,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1586</v>
+        <v>441</v>
       </c>
       <c r="B249" t="s">
         <v>249</v>
@@ -3507,7 +3378,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>826</v>
+        <v>279</v>
       </c>
       <c r="B250" t="s">
         <v>250</v>
@@ -3515,7 +3386,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>85</v>
+        <v>606</v>
       </c>
       <c r="B251" t="s">
         <v>251</v>
@@ -3523,7 +3394,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>431</v>
+        <v>88</v>
       </c>
       <c r="B252" t="s">
         <v>252</v>
@@ -3531,7 +3402,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>432</v>
+        <v>1676</v>
       </c>
       <c r="B253" t="s">
         <v>253</v>
@@ -3539,7 +3410,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>86</v>
+        <v>965</v>
       </c>
       <c r="B254" t="s">
         <v>254</v>
@@ -3547,7 +3418,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="B255" t="s">
         <v>255</v>
@@ -3555,7 +3426,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>584</v>
+        <v>1883</v>
       </c>
       <c r="B256" t="s">
         <v>256</v>
@@ -3563,7 +3434,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1509</v>
+        <v>610</v>
       </c>
       <c r="B257" t="s">
         <v>257</v>
@@ -3571,7 +3442,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>437</v>
+        <v>1714</v>
       </c>
       <c r="B258" t="s">
         <v>258</v>
@@ -3579,7 +3450,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>589</v>
+        <v>90</v>
       </c>
       <c r="B259" t="s">
         <v>259</v>
@@ -3587,7 +3458,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1734</v>
+        <v>342</v>
       </c>
       <c r="B260" t="s">
         <v>260</v>
@@ -3595,7 +3466,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>590</v>
+        <v>847</v>
       </c>
       <c r="B261" t="s">
         <v>261</v>
@@ -3603,7 +3474,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1894</v>
+        <v>848</v>
       </c>
       <c r="B262" t="s">
         <v>262</v>
@@ -3611,7 +3482,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>765</v>
+        <v>37</v>
       </c>
       <c r="B263" t="s">
         <v>263</v>
@@ -3619,7 +3490,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1926</v>
+        <v>180</v>
       </c>
       <c r="B264" t="s">
         <v>264</v>
@@ -3627,7 +3498,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>439</v>
+        <v>532</v>
       </c>
       <c r="B265" t="s">
         <v>265</v>
@@ -3635,7 +3506,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>273</v>
+        <v>851</v>
       </c>
       <c r="B266" t="s">
         <v>266</v>
@@ -3643,7 +3514,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>177</v>
+        <v>1708</v>
       </c>
       <c r="B267" t="s">
         <v>267</v>
@@ -3651,7 +3522,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>703</v>
+        <v>971</v>
       </c>
       <c r="B268" t="s">
         <v>268</v>
@@ -3659,7 +3530,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>274</v>
+        <v>1904</v>
       </c>
       <c r="B269" t="s">
         <v>269</v>
@@ -3667,7 +3538,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>339</v>
+        <v>1900</v>
       </c>
       <c r="B270" t="s">
         <v>270</v>
@@ -3675,7 +3546,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1667</v>
+        <v>715</v>
       </c>
       <c r="B271" t="s">
         <v>271</v>
@@ -3683,7 +3554,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>275</v>
+        <v>93</v>
       </c>
       <c r="B272" t="s">
         <v>272</v>
@@ -3691,7 +3562,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>340</v>
+        <v>448</v>
       </c>
       <c r="B273" t="s">
         <v>273</v>
@@ -3699,7 +3570,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>597</v>
+        <v>1525</v>
       </c>
       <c r="B274" t="s">
         <v>274</v>
@@ -3707,7 +3578,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>196</v>
+        <v>716</v>
       </c>
       <c r="B275" t="s">
         <v>275</v>
@@ -3715,7 +3586,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1742</v>
+        <v>281</v>
       </c>
       <c r="B276" t="s">
         <v>276</v>
@@ -3723,7 +3594,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>603</v>
+        <v>855</v>
       </c>
       <c r="B277" t="s">
         <v>277</v>
@@ -3731,7 +3602,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1669</v>
+        <v>183</v>
       </c>
       <c r="B278" t="s">
         <v>278</v>
@@ -3739,7 +3610,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>957</v>
+        <v>1700</v>
       </c>
       <c r="B279" t="s">
         <v>279</v>
@@ -3747,7 +3618,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>736</v>
+        <v>1730</v>
       </c>
       <c r="B280" t="s">
         <v>280</v>
@@ -3755,7 +3626,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1674</v>
+        <v>737</v>
       </c>
       <c r="B281" t="s">
         <v>281</v>
@@ -3763,7 +3634,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>599</v>
+        <v>450</v>
       </c>
       <c r="B282" t="s">
         <v>282</v>
@@ -3771,7 +3642,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>277</v>
+        <v>451</v>
       </c>
       <c r="B283" t="s">
         <v>283</v>
@@ -3779,7 +3650,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>840</v>
+        <v>184</v>
       </c>
       <c r="B284" t="s">
         <v>284</v>
@@ -3787,7 +3658,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>441</v>
+        <v>344</v>
       </c>
       <c r="B285" t="s">
         <v>285</v>
@@ -3795,7 +3666,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>279</v>
+        <v>1581</v>
       </c>
       <c r="B286" t="s">
         <v>286</v>
@@ -3803,7 +3674,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>606</v>
+        <v>981</v>
       </c>
       <c r="B287" t="s">
         <v>287</v>
@@ -3811,7 +3682,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>88</v>
+        <v>994</v>
       </c>
       <c r="B288" t="s">
         <v>288</v>
@@ -3819,7 +3690,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>962</v>
+        <v>858</v>
       </c>
       <c r="B289" t="s">
         <v>289</v>
@@ -3827,7 +3698,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1676</v>
+        <v>47</v>
       </c>
       <c r="B290" t="s">
         <v>290</v>
@@ -3835,7 +3706,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>965</v>
+        <v>345</v>
       </c>
       <c r="B291" t="s">
         <v>291</v>
@@ -3843,7 +3714,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1702</v>
+        <v>717</v>
       </c>
       <c r="B292" t="s">
         <v>292</v>
@@ -3851,7 +3722,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="B293" t="s">
         <v>293</v>
@@ -3859,7 +3730,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1883</v>
+        <v>453</v>
       </c>
       <c r="B294" t="s">
         <v>294</v>
@@ -3867,7 +3738,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>610</v>
+        <v>983</v>
       </c>
       <c r="B295" t="s">
         <v>295</v>
@@ -3875,7 +3746,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>40</v>
+        <v>984</v>
       </c>
       <c r="B296" t="s">
         <v>296</v>
@@ -3883,7 +3754,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>1714</v>
+        <v>1961</v>
       </c>
       <c r="B297" t="s">
         <v>297</v>
@@ -3891,7 +3762,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>90</v>
+        <v>622</v>
       </c>
       <c r="B298" t="s">
         <v>298</v>
@@ -3899,7 +3770,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>342</v>
+        <v>96</v>
       </c>
       <c r="B299" t="s">
         <v>299</v>
@@ -3907,7 +3778,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>847</v>
+        <v>718</v>
       </c>
       <c r="B300" t="s">
         <v>300</v>
@@ -3915,7 +3786,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>848</v>
+        <v>986</v>
       </c>
       <c r="B301" t="s">
         <v>301</v>
@@ -3923,7 +3794,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>37</v>
+        <v>626</v>
       </c>
       <c r="B302" t="s">
         <v>302</v>
@@ -3931,7 +3802,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="B303" t="s">
         <v>303</v>
@@ -3939,7 +3810,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>532</v>
+        <v>865</v>
       </c>
       <c r="B304" t="s">
         <v>304</v>
@@ -3947,7 +3818,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>851</v>
+        <v>1949</v>
       </c>
       <c r="B305" t="s">
         <v>305</v>
@@ -3955,7 +3826,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1708</v>
+        <v>866</v>
       </c>
       <c r="B306" t="s">
         <v>306</v>
@@ -3963,7 +3834,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>971</v>
+        <v>867</v>
       </c>
       <c r="B307" t="s">
         <v>307</v>
@@ -3971,7 +3842,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>1904</v>
+        <v>627</v>
       </c>
       <c r="B308" t="s">
         <v>308</v>
@@ -3979,7 +3850,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>617</v>
+        <v>289</v>
       </c>
       <c r="B309" t="s">
         <v>309</v>
@@ -3987,7 +3858,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>1900</v>
+        <v>629</v>
       </c>
       <c r="B310" t="s">
         <v>310</v>
@@ -3995,7 +3866,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>715</v>
+        <v>852</v>
       </c>
       <c r="B311" t="s">
         <v>311</v>
@@ -4003,7 +3874,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>93</v>
+        <v>988</v>
       </c>
       <c r="B312" t="s">
         <v>312</v>
@@ -4011,7 +3882,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B313" t="s">
         <v>313</v>
@@ -4019,7 +3890,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>1525</v>
+        <v>1960</v>
       </c>
       <c r="B314" t="s">
         <v>314</v>
@@ -4027,7 +3898,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>716</v>
+        <v>668</v>
       </c>
       <c r="B315" t="s">
         <v>315</v>
@@ -4035,7 +3906,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>281</v>
+        <v>1969</v>
       </c>
       <c r="B316" t="s">
         <v>316</v>
@@ -4043,7 +3914,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>855</v>
+        <v>1701</v>
       </c>
       <c r="B317" t="s">
         <v>317</v>
@@ -4051,7 +3922,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="B318" t="s">
         <v>318</v>
@@ -4059,7 +3930,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1700</v>
+        <v>1950</v>
       </c>
       <c r="B319" t="s">
         <v>319</v>
@@ -4067,7 +3938,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>1730</v>
+        <v>1783</v>
       </c>
       <c r="B320" t="s">
         <v>320</v>
@@ -4075,7 +3946,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>737</v>
+        <v>98</v>
       </c>
       <c r="B321" t="s">
         <v>321</v>
@@ -4083,7 +3954,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>856</v>
+        <v>614</v>
       </c>
       <c r="B322" t="s">
         <v>322</v>
@@ -4091,7 +3962,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>450</v>
+        <v>189</v>
       </c>
       <c r="B323" t="s">
         <v>323</v>
@@ -4099,7 +3970,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>451</v>
+        <v>296</v>
       </c>
       <c r="B324" t="s">
         <v>324</v>
@@ -4107,7 +3978,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>184</v>
+        <v>1696</v>
       </c>
       <c r="B325" t="s">
         <v>325</v>
@@ -4115,7 +3986,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B326" t="s">
         <v>326</v>
@@ -4123,7 +3994,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>1581</v>
+        <v>294</v>
       </c>
       <c r="B327" t="s">
         <v>327</v>
@@ -4131,7 +4002,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>981</v>
+        <v>873</v>
       </c>
       <c r="B328" t="s">
         <v>328</v>
@@ -4139,7 +4010,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>994</v>
+        <v>632</v>
       </c>
       <c r="B329" t="s">
         <v>329</v>
@@ -4147,7 +4018,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>858</v>
+        <v>1690</v>
       </c>
       <c r="B330" t="s">
         <v>330</v>
@@ -4155,7 +4026,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>47</v>
+        <v>880</v>
       </c>
       <c r="B331" t="s">
         <v>331</v>
@@ -4163,7 +4034,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B332" t="s">
         <v>332</v>
@@ -4171,7 +4042,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>717</v>
+        <v>479</v>
       </c>
       <c r="B333" t="s">
         <v>333</v>
@@ -4179,7 +4050,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>861</v>
+        <v>297</v>
       </c>
       <c r="B334" t="s">
         <v>334</v>
@@ -4187,7 +4058,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="B335" t="s">
         <v>335</v>
@@ -4195,7 +4066,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>983</v>
+        <v>50</v>
       </c>
       <c r="B336" t="s">
         <v>336</v>
@@ -4203,7 +4074,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>984</v>
+        <v>355</v>
       </c>
       <c r="B337" t="s">
         <v>337</v>
@@ -4211,7 +4082,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>620</v>
+        <v>299</v>
       </c>
       <c r="B338" t="s">
         <v>338</v>
@@ -4219,7 +4090,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="B339" t="s">
         <v>339</v>
@@ -4227,7 +4098,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>48</v>
+        <v>638</v>
       </c>
       <c r="B340" t="s">
         <v>340</v>
@@ -4235,7 +4106,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>96</v>
+        <v>1892</v>
       </c>
       <c r="B341" t="s">
         <v>341</v>
@@ -4243,7 +4114,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>718</v>
+        <v>879</v>
       </c>
       <c r="B342" t="s">
         <v>342</v>
@@ -4251,7 +4122,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>986</v>
+        <v>301</v>
       </c>
       <c r="B343" t="s">
         <v>343</v>
@@ -4259,7 +4130,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>626</v>
+        <v>1896</v>
       </c>
       <c r="B344" t="s">
         <v>344</v>
@@ -4267,7 +4138,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>285</v>
+        <v>642</v>
       </c>
       <c r="B345" t="s">
         <v>345</v>
@@ -4275,354 +4146,10 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>865</v>
+        <v>193</v>
       </c>
       <c r="B346" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>866</v>
-      </c>
-      <c r="B347" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>867</v>
-      </c>
-      <c r="B348" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>627</v>
-      </c>
-      <c r="B349" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v>289</v>
-      </c>
-      <c r="B350" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v>629</v>
-      </c>
-      <c r="B351" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v>852</v>
-      </c>
-      <c r="B352" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>988</v>
-      </c>
-      <c r="B353" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>457</v>
-      </c>
-      <c r="B354" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>870</v>
-      </c>
-      <c r="B355" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>668</v>
-      </c>
-      <c r="B356" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>1701</v>
-      </c>
-      <c r="B357" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>293</v>
-      </c>
-      <c r="B358" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>1783</v>
-      </c>
-      <c r="B359" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>98</v>
-      </c>
-      <c r="B360" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>614</v>
-      </c>
-      <c r="B361" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>189</v>
-      </c>
-      <c r="B362" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>296</v>
-      </c>
-      <c r="B363" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>1696</v>
-      </c>
-      <c r="B364" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>352</v>
-      </c>
-      <c r="B365" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>53</v>
-      </c>
-      <c r="B366" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>294</v>
-      </c>
-      <c r="B367" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>873</v>
-      </c>
-      <c r="B368" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>632</v>
-      </c>
-      <c r="B369" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>1690</v>
-      </c>
-      <c r="B370" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>880</v>
-      </c>
-      <c r="B371" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>351</v>
-      </c>
-      <c r="B372" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>874</v>
-      </c>
-      <c r="B373" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>479</v>
-      </c>
-      <c r="B374" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>297</v>
-      </c>
-      <c r="B375" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>473</v>
-      </c>
-      <c r="B376" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>707</v>
-      </c>
-      <c r="B377" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>50</v>
-      </c>
-      <c r="B378" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>355</v>
-      </c>
-      <c r="B379" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>299</v>
-      </c>
-      <c r="B380" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>637</v>
-      </c>
-      <c r="B381" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v>638</v>
-      </c>
-      <c r="B382" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>56</v>
-      </c>
-      <c r="B383" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>1892</v>
-      </c>
-      <c r="B384" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>879</v>
-      </c>
-      <c r="B385" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="n">
-        <v>301</v>
-      </c>
-      <c r="B386" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="n">
-        <v>1896</v>
-      </c>
-      <c r="B387" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="n">
-        <v>642</v>
-      </c>
-      <c r="B388" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
-        <v>193</v>
-      </c>
-      <c r="B389" t="s">
-        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/R/DATA/CBS/cbs_munic_codes.xlsx
+++ b/R/DATA/CBS/cbs_munic_codes.xlsx
@@ -1,1066 +1,1076 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RSTAT\Burgerpeiling\R\DATA\CBS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31FF288-A144-4964-9AFE-68A71E145AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
-  <si>
-    <t xml:space="preserve">Gemeentecode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gemeentenaam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aa en Hunze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aalsmeer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aalten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achtkarspelen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alblasserdam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albrandswaard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alkmaar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alphen aan den Rijn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alphen-Chaam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ameland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amersfoort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amstelveen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amsterdam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apeldoorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnhem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baarle-Nassau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baarn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barendrecht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barneveld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beekdaelen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beesel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berg en Dal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergeijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergen (L.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergen (NH.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergen op Zoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berkelland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernheze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beuningen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beverwijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Bilt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bladel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blaricum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloemendaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bodegraven-Reeuwijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boekel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borger-Odoorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borsele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boxtel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brielle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bronckhorst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brummen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brunssum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bunnik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bunschoten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capelle aan den IJssel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castricum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coevorden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cranendonck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culemborg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dalfsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dantumadiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deurne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deventer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dijk en Waard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinkelland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doesburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doetinchem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dongen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dordrecht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drechterland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drimmelen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dronten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Druten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duiven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echt-Susteren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edam-Volendam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eemnes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eemsdelta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eersel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eijsden-Margraten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eindhoven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enkhuizen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enschede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ermelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etten-Leur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Fryske Marren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geertruidenberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geldrop-Mierlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gemert-Bakel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gennep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilze en Rijen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goeree-Overflakkee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goirle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gooise Meren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorinchem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gouda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'s-Gravenhage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groningen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulpen-Wittem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haaksbergen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haarlem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haarlemmermeer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halderberge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardenberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harderwijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardinxveld-Giessendam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harlingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hattem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heemskerk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heemstede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heerde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heerenveen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heerlen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heeze-Leende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heiloo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Den Helder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hellendoorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hellevoetsluis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helmond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hendrik-Ido-Ambacht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hengelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'s-Hertogenbosch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heumen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heusden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hillegom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hilvarenbeek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hilversum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoeksche Waard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hof van Twente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Het Hogeland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hollands Kroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoogeveen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horst aan de Maas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Houten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huizen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hulst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IJsselstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaag en Braassem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kampen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katwijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kerkrade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koggenland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krimpen aan den IJssel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krimpenerwaard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laarbeek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land van Cuijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landgraaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landsmeer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lansingerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leeuwarden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leiden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leiderdorp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leidschendam-Voorburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lelystad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leudal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leusden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lingewaard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lisse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lochem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loon op Zand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lopik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maasdriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maasgouw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maashorst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maassluis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maastricht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medemblik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meerssen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meierijstad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meppel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middelburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midden-Delfland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midden-Drenthe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midden-Groningen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moerdijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molenlanden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montferland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montfoort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mook en Middelaar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neder-Betuwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nederweert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nieuwegein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nieuwkoop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nijkerk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nijmegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nissewaard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noardeast-FryslÃ¢n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noord-Beveland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noordenveld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noordoostpolder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noordwijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuenen, Gerwen en Nederwetten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nunspeet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oegstgeest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oirschot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oisterwijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oldambt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oldebroek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oldenzaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olst-Wijhe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ommen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oost Gelre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oosterhout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ooststellingwerf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oostzaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opmeer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opsterland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oude IJsselstreek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ouder-Amstel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oudewater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overbetuwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papendrecht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peel en Maas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pekela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pijnacker-Nootdorp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purmerend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Putten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raalte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reimerswaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renkum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renswoude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reusel-De Mierden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhenen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ridderkerk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rijssen-Holten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rijswijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roerdalen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roermond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Ronde Venen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roosendaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotterdam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rozendaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rucphen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scherpenzeel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schiedam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schiermonnikoog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schouwen-Duiveland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simpelveld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sint-Michielsgestel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sittard-Geleen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sliedrecht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sluis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallingerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Someren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son en Breugel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stadskanaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staphorst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stede Broec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steenbergen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steenwijkerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stichtse Vecht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SÃºdwest-FryslÃ¢n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terneuzen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terschelling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teylingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tholen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tilburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tubbergen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twenterand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tynaarlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tytsjerksteradiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uitgeest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uithoorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utrecht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utrechtse Heuvelrug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valkenburg aan de Geul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valkenswaard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veendam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veenendaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veldhoven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vijfheerenlanden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vlaardingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vlieland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vlissingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voerendaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voorschoten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voorst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vught</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waadhoeke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waalre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waalwijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waddinxveen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wageningen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wassenaar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waterland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weesp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Betuwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Maas en Waal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Westerkwartier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Westerveld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Westervoort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Westerwolde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Westland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weststellingwerf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Westvoorne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wierden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wijchen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wijdemeren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wijk bij Duurstede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winterswijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woensdrecht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woerden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Wolden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wormerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woudenberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zaanstad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zaltbommel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zandvoort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zeewolde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zeist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zevenaar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoetermeer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoeterwoude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zuidplas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zundert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zutphen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zwartewaterland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zwijndrecht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zwolle</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
+  <si>
+    <t>Gemeentecode</t>
+  </si>
+  <si>
+    <t>Gemeentenaam</t>
+  </si>
+  <si>
+    <t>Aa en Hunze</t>
+  </si>
+  <si>
+    <t>Aalsmeer</t>
+  </si>
+  <si>
+    <t>Aalten</t>
+  </si>
+  <si>
+    <t>Achtkarspelen</t>
+  </si>
+  <si>
+    <t>Alblasserdam</t>
+  </si>
+  <si>
+    <t>Albrandswaard</t>
+  </si>
+  <si>
+    <t>Alkmaar</t>
+  </si>
+  <si>
+    <t>Almelo</t>
+  </si>
+  <si>
+    <t>Almere</t>
+  </si>
+  <si>
+    <t>Alphen aan den Rijn</t>
+  </si>
+  <si>
+    <t>Alphen-Chaam</t>
+  </si>
+  <si>
+    <t>Altena</t>
+  </si>
+  <si>
+    <t>Ameland</t>
+  </si>
+  <si>
+    <t>Amersfoort</t>
+  </si>
+  <si>
+    <t>Amstelveen</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Apeldoorn</t>
+  </si>
+  <si>
+    <t>Arnhem</t>
+  </si>
+  <si>
+    <t>Assen</t>
+  </si>
+  <si>
+    <t>Asten</t>
+  </si>
+  <si>
+    <t>Baarle-Nassau</t>
+  </si>
+  <si>
+    <t>Baarn</t>
+  </si>
+  <si>
+    <t>Barendrecht</t>
+  </si>
+  <si>
+    <t>Barneveld</t>
+  </si>
+  <si>
+    <t>Beek</t>
+  </si>
+  <si>
+    <t>Beekdaelen</t>
+  </si>
+  <si>
+    <t>Beesel</t>
+  </si>
+  <si>
+    <t>Berg en Dal</t>
+  </si>
+  <si>
+    <t>Bergeijk</t>
+  </si>
+  <si>
+    <t>Bergen (L.)</t>
+  </si>
+  <si>
+    <t>Bergen (NH.)</t>
+  </si>
+  <si>
+    <t>Bergen op Zoom</t>
+  </si>
+  <si>
+    <t>Berkelland</t>
+  </si>
+  <si>
+    <t>Bernheze</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Beuningen</t>
+  </si>
+  <si>
+    <t>Beverwijk</t>
+  </si>
+  <si>
+    <t>De Bilt</t>
+  </si>
+  <si>
+    <t>Bladel</t>
+  </si>
+  <si>
+    <t>Blaricum</t>
+  </si>
+  <si>
+    <t>Bloemendaal</t>
+  </si>
+  <si>
+    <t>Bodegraven-Reeuwijk</t>
+  </si>
+  <si>
+    <t>Boekel</t>
+  </si>
+  <si>
+    <t>Borger-Odoorn</t>
+  </si>
+  <si>
+    <t>Borne</t>
+  </si>
+  <si>
+    <t>Borsele</t>
+  </si>
+  <si>
+    <t>Boxtel</t>
+  </si>
+  <si>
+    <t>Breda</t>
+  </si>
+  <si>
+    <t>Brielle</t>
+  </si>
+  <si>
+    <t>Bronckhorst</t>
+  </si>
+  <si>
+    <t>Brummen</t>
+  </si>
+  <si>
+    <t>Brunssum</t>
+  </si>
+  <si>
+    <t>Bunnik</t>
+  </si>
+  <si>
+    <t>Bunschoten</t>
+  </si>
+  <si>
+    <t>Buren</t>
+  </si>
+  <si>
+    <t>Capelle aan den IJssel</t>
+  </si>
+  <si>
+    <t>Castricum</t>
+  </si>
+  <si>
+    <t>Coevorden</t>
+  </si>
+  <si>
+    <t>Cranendonck</t>
+  </si>
+  <si>
+    <t>Culemborg</t>
+  </si>
+  <si>
+    <t>Dalfsen</t>
+  </si>
+  <si>
+    <t>Dantumadiel</t>
+  </si>
+  <si>
+    <t>Delft</t>
+  </si>
+  <si>
+    <t>Deurne</t>
+  </si>
+  <si>
+    <t>Deventer</t>
+  </si>
+  <si>
+    <t>Diemen</t>
+  </si>
+  <si>
+    <t>Dijk en Waard</t>
+  </si>
+  <si>
+    <t>Dinkelland</t>
+  </si>
+  <si>
+    <t>Doesburg</t>
+  </si>
+  <si>
+    <t>Doetinchem</t>
+  </si>
+  <si>
+    <t>Dongen</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>Drechterland</t>
+  </si>
+  <si>
+    <t>Drimmelen</t>
+  </si>
+  <si>
+    <t>Dronten</t>
+  </si>
+  <si>
+    <t>Druten</t>
+  </si>
+  <si>
+    <t>Duiven</t>
+  </si>
+  <si>
+    <t>Echt-Susteren</t>
+  </si>
+  <si>
+    <t>Edam-Volendam</t>
+  </si>
+  <si>
+    <t>Ede</t>
+  </si>
+  <si>
+    <t>Eemnes</t>
+  </si>
+  <si>
+    <t>Eemsdelta</t>
+  </si>
+  <si>
+    <t>Eersel</t>
+  </si>
+  <si>
+    <t>Eijsden-Margraten</t>
+  </si>
+  <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>Elburg</t>
+  </si>
+  <si>
+    <t>Emmen</t>
+  </si>
+  <si>
+    <t>Enkhuizen</t>
+  </si>
+  <si>
+    <t>Enschede</t>
+  </si>
+  <si>
+    <t>Epe</t>
+  </si>
+  <si>
+    <t>Ermelo</t>
+  </si>
+  <si>
+    <t>Etten-Leur</t>
+  </si>
+  <si>
+    <t>De Fryske Marren</t>
+  </si>
+  <si>
+    <t>Geertruidenberg</t>
+  </si>
+  <si>
+    <t>Geldrop-Mierlo</t>
+  </si>
+  <si>
+    <t>Gemert-Bakel</t>
+  </si>
+  <si>
+    <t>Gennep</t>
+  </si>
+  <si>
+    <t>Gilze en Rijen</t>
+  </si>
+  <si>
+    <t>Goeree-Overflakkee</t>
+  </si>
+  <si>
+    <t>Goes</t>
+  </si>
+  <si>
+    <t>Goirle</t>
+  </si>
+  <si>
+    <t>Gooise Meren</t>
+  </si>
+  <si>
+    <t>Gorinchem</t>
+  </si>
+  <si>
+    <t>Gouda</t>
+  </si>
+  <si>
+    <t>'s-Gravenhage</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Gulpen-Wittem</t>
+  </si>
+  <si>
+    <t>Haaksbergen</t>
+  </si>
+  <si>
+    <t>Haarlem</t>
+  </si>
+  <si>
+    <t>Haarlemmermeer</t>
+  </si>
+  <si>
+    <t>Halderberge</t>
+  </si>
+  <si>
+    <t>Hardenberg</t>
+  </si>
+  <si>
+    <t>Harderwijk</t>
+  </si>
+  <si>
+    <t>Hardinxveld-Giessendam</t>
+  </si>
+  <si>
+    <t>Harlingen</t>
+  </si>
+  <si>
+    <t>Hattem</t>
+  </si>
+  <si>
+    <t>Heemskerk</t>
+  </si>
+  <si>
+    <t>Heemstede</t>
+  </si>
+  <si>
+    <t>Heerde</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heerlen</t>
+  </si>
+  <si>
+    <t>Heeze-Leende</t>
+  </si>
+  <si>
+    <t>Heiloo</t>
+  </si>
+  <si>
+    <t>Den Helder</t>
+  </si>
+  <si>
+    <t>Hellendoorn</t>
+  </si>
+  <si>
+    <t>Hellevoetsluis</t>
+  </si>
+  <si>
+    <t>Helmond</t>
+  </si>
+  <si>
+    <t>Hendrik-Ido-Ambacht</t>
+  </si>
+  <si>
+    <t>Hengelo</t>
+  </si>
+  <si>
+    <t>'s-Hertogenbosch</t>
+  </si>
+  <si>
+    <t>Heumen</t>
+  </si>
+  <si>
+    <t>Heusden</t>
+  </si>
+  <si>
+    <t>Hillegom</t>
+  </si>
+  <si>
+    <t>Hilvarenbeek</t>
+  </si>
+  <si>
+    <t>Hilversum</t>
+  </si>
+  <si>
+    <t>Hoeksche Waard</t>
+  </si>
+  <si>
+    <t>Hof van Twente</t>
+  </si>
+  <si>
+    <t>Het Hogeland</t>
+  </si>
+  <si>
+    <t>Hollands Kroon</t>
+  </si>
+  <si>
+    <t>Hoogeveen</t>
+  </si>
+  <si>
+    <t>Hoorn</t>
+  </si>
+  <si>
+    <t>Horst aan de Maas</t>
+  </si>
+  <si>
+    <t>Houten</t>
+  </si>
+  <si>
+    <t>Huizen</t>
+  </si>
+  <si>
+    <t>Hulst</t>
+  </si>
+  <si>
+    <t>IJsselstein</t>
+  </si>
+  <si>
+    <t>Kaag en Braassem</t>
+  </si>
+  <si>
+    <t>Kampen</t>
+  </si>
+  <si>
+    <t>Kapelle</t>
+  </si>
+  <si>
+    <t>Katwijk</t>
+  </si>
+  <si>
+    <t>Kerkrade</t>
+  </si>
+  <si>
+    <t>Koggenland</t>
+  </si>
+  <si>
+    <t>Krimpen aan den IJssel</t>
+  </si>
+  <si>
+    <t>Krimpenerwaard</t>
+  </si>
+  <si>
+    <t>Laarbeek</t>
+  </si>
+  <si>
+    <t>Land van Cuijk</t>
+  </si>
+  <si>
+    <t>Landgraaf</t>
+  </si>
+  <si>
+    <t>Landsmeer</t>
+  </si>
+  <si>
+    <t>Lansingerland</t>
+  </si>
+  <si>
+    <t>Laren</t>
+  </si>
+  <si>
+    <t>Leeuwarden</t>
+  </si>
+  <si>
+    <t>Leiden</t>
+  </si>
+  <si>
+    <t>Leiderdorp</t>
+  </si>
+  <si>
+    <t>Leidschendam-Voorburg</t>
+  </si>
+  <si>
+    <t>Lelystad</t>
+  </si>
+  <si>
+    <t>Leudal</t>
+  </si>
+  <si>
+    <t>Leusden</t>
+  </si>
+  <si>
+    <t>Lingewaard</t>
+  </si>
+  <si>
+    <t>Lisse</t>
+  </si>
+  <si>
+    <t>Lochem</t>
+  </si>
+  <si>
+    <t>Loon op Zand</t>
+  </si>
+  <si>
+    <t>Lopik</t>
+  </si>
+  <si>
+    <t>Losser</t>
+  </si>
+  <si>
+    <t>Maasdriel</t>
+  </si>
+  <si>
+    <t>Maasgouw</t>
+  </si>
+  <si>
+    <t>Maashorst</t>
+  </si>
+  <si>
+    <t>Maassluis</t>
+  </si>
+  <si>
+    <t>Maastricht</t>
+  </si>
+  <si>
+    <t>Medemblik</t>
+  </si>
+  <si>
+    <t>Meerssen</t>
+  </si>
+  <si>
+    <t>Meierijstad</t>
+  </si>
+  <si>
+    <t>Meppel</t>
+  </si>
+  <si>
+    <t>Middelburg</t>
+  </si>
+  <si>
+    <t>Midden-Delfland</t>
+  </si>
+  <si>
+    <t>Midden-Drenthe</t>
+  </si>
+  <si>
+    <t>Midden-Groningen</t>
+  </si>
+  <si>
+    <t>Moerdijk</t>
+  </si>
+  <si>
+    <t>Molenlanden</t>
+  </si>
+  <si>
+    <t>Montferland</t>
+  </si>
+  <si>
+    <t>Montfoort</t>
+  </si>
+  <si>
+    <t>Mook en Middelaar</t>
+  </si>
+  <si>
+    <t>Neder-Betuwe</t>
+  </si>
+  <si>
+    <t>Nederweert</t>
+  </si>
+  <si>
+    <t>Nieuwegein</t>
+  </si>
+  <si>
+    <t>Nieuwkoop</t>
+  </si>
+  <si>
+    <t>Nijkerk</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>Nissewaard</t>
+  </si>
+  <si>
+    <t>Noardeast-FryslÃ¢n</t>
+  </si>
+  <si>
+    <t>Noord-Beveland</t>
+  </si>
+  <si>
+    <t>Noordenveld</t>
+  </si>
+  <si>
+    <t>Noordoostpolder</t>
+  </si>
+  <si>
+    <t>Noordwijk</t>
+  </si>
+  <si>
+    <t>Nuenen, Gerwen en Nederwetten</t>
+  </si>
+  <si>
+    <t>Nunspeet</t>
+  </si>
+  <si>
+    <t>Oegstgeest</t>
+  </si>
+  <si>
+    <t>Oirschot</t>
+  </si>
+  <si>
+    <t>Oisterwijk</t>
+  </si>
+  <si>
+    <t>Oldambt</t>
+  </si>
+  <si>
+    <t>Oldebroek</t>
+  </si>
+  <si>
+    <t>Oldenzaal</t>
+  </si>
+  <si>
+    <t>Olst-Wijhe</t>
+  </si>
+  <si>
+    <t>Ommen</t>
+  </si>
+  <si>
+    <t>Oost Gelre</t>
+  </si>
+  <si>
+    <t>Oosterhout</t>
+  </si>
+  <si>
+    <t>Ooststellingwerf</t>
+  </si>
+  <si>
+    <t>Oostzaan</t>
+  </si>
+  <si>
+    <t>Opmeer</t>
+  </si>
+  <si>
+    <t>Opsterland</t>
+  </si>
+  <si>
+    <t>Oss</t>
+  </si>
+  <si>
+    <t>Oude IJsselstreek</t>
+  </si>
+  <si>
+    <t>Ouder-Amstel</t>
+  </si>
+  <si>
+    <t>Oudewater</t>
+  </si>
+  <si>
+    <t>Overbetuwe</t>
+  </si>
+  <si>
+    <t>Papendrecht</t>
+  </si>
+  <si>
+    <t>Peel en Maas</t>
+  </si>
+  <si>
+    <t>Pekela</t>
+  </si>
+  <si>
+    <t>Pijnacker-Nootdorp</t>
+  </si>
+  <si>
+    <t>Purmerend</t>
+  </si>
+  <si>
+    <t>Putten</t>
+  </si>
+  <si>
+    <t>Raalte</t>
+  </si>
+  <si>
+    <t>Reimerswaal</t>
+  </si>
+  <si>
+    <t>Renkum</t>
+  </si>
+  <si>
+    <t>Renswoude</t>
+  </si>
+  <si>
+    <t>Reusel-De Mierden</t>
+  </si>
+  <si>
+    <t>Rheden</t>
+  </si>
+  <si>
+    <t>Rhenen</t>
+  </si>
+  <si>
+    <t>Ridderkerk</t>
+  </si>
+  <si>
+    <t>Rijssen-Holten</t>
+  </si>
+  <si>
+    <t>Rijswijk</t>
+  </si>
+  <si>
+    <t>Roerdalen</t>
+  </si>
+  <si>
+    <t>Roermond</t>
+  </si>
+  <si>
+    <t>De Ronde Venen</t>
+  </si>
+  <si>
+    <t>Roosendaal</t>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+  </si>
+  <si>
+    <t>Rozendaal</t>
+  </si>
+  <si>
+    <t>Rucphen</t>
+  </si>
+  <si>
+    <t>Schagen</t>
+  </si>
+  <si>
+    <t>Scherpenzeel</t>
+  </si>
+  <si>
+    <t>Schiedam</t>
+  </si>
+  <si>
+    <t>Schiermonnikoog</t>
+  </si>
+  <si>
+    <t>Schouwen-Duiveland</t>
+  </si>
+  <si>
+    <t>Simpelveld</t>
+  </si>
+  <si>
+    <t>Sint-Michielsgestel</t>
+  </si>
+  <si>
+    <t>Sittard-Geleen</t>
+  </si>
+  <si>
+    <t>Sliedrecht</t>
+  </si>
+  <si>
+    <t>Sluis</t>
+  </si>
+  <si>
+    <t>Smallingerland</t>
+  </si>
+  <si>
+    <t>Soest</t>
+  </si>
+  <si>
+    <t>Someren</t>
+  </si>
+  <si>
+    <t>Son en Breugel</t>
+  </si>
+  <si>
+    <t>Stadskanaal</t>
+  </si>
+  <si>
+    <t>Staphorst</t>
+  </si>
+  <si>
+    <t>Stede Broec</t>
+  </si>
+  <si>
+    <t>Steenbergen</t>
+  </si>
+  <si>
+    <t>Steenwijkerland</t>
+  </si>
+  <si>
+    <t>Stein</t>
+  </si>
+  <si>
+    <t>Stichtse Vecht</t>
+  </si>
+  <si>
+    <t>SÃºdwest-FryslÃ¢n</t>
+  </si>
+  <si>
+    <t>Terneuzen</t>
+  </si>
+  <si>
+    <t>Terschelling</t>
+  </si>
+  <si>
+    <t>Texel</t>
+  </si>
+  <si>
+    <t>Teylingen</t>
+  </si>
+  <si>
+    <t>Tholen</t>
+  </si>
+  <si>
+    <t>Tiel</t>
+  </si>
+  <si>
+    <t>Tilburg</t>
+  </si>
+  <si>
+    <t>Tubbergen</t>
+  </si>
+  <si>
+    <t>Twenterand</t>
+  </si>
+  <si>
+    <t>Tynaarlo</t>
+  </si>
+  <si>
+    <t>Tytsjerksteradiel</t>
+  </si>
+  <si>
+    <t>Uitgeest</t>
+  </si>
+  <si>
+    <t>Uithoorn</t>
+  </si>
+  <si>
+    <t>Urk</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Utrechtse Heuvelrug</t>
+  </si>
+  <si>
+    <t>Vaals</t>
+  </si>
+  <si>
+    <t>Valkenburg aan de Geul</t>
+  </si>
+  <si>
+    <t>Valkenswaard</t>
+  </si>
+  <si>
+    <t>Veendam</t>
+  </si>
+  <si>
+    <t>Veenendaal</t>
+  </si>
+  <si>
+    <t>Veere</t>
+  </si>
+  <si>
+    <t>Veldhoven</t>
+  </si>
+  <si>
+    <t>Velsen</t>
+  </si>
+  <si>
+    <t>Venlo</t>
+  </si>
+  <si>
+    <t>Venray</t>
+  </si>
+  <si>
+    <t>Vijfheerenlanden</t>
+  </si>
+  <si>
+    <t>Vlaardingen</t>
+  </si>
+  <si>
+    <t>Vlieland</t>
+  </si>
+  <si>
+    <t>Vlissingen</t>
+  </si>
+  <si>
+    <t>Voerendaal</t>
+  </si>
+  <si>
+    <t>Voorschoten</t>
+  </si>
+  <si>
+    <t>Voorst</t>
+  </si>
+  <si>
+    <t>Vught</t>
+  </si>
+  <si>
+    <t>Waadhoeke</t>
+  </si>
+  <si>
+    <t>Waalre</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Waddinxveen</t>
+  </si>
+  <si>
+    <t>Wageningen</t>
+  </si>
+  <si>
+    <t>Wassenaar</t>
+  </si>
+  <si>
+    <t>Waterland</t>
+  </si>
+  <si>
+    <t>Weert</t>
+  </si>
+  <si>
+    <t>Weesp</t>
+  </si>
+  <si>
+    <t>West Betuwe</t>
+  </si>
+  <si>
+    <t>West Maas en Waal</t>
+  </si>
+  <si>
+    <t>Westerkwartier</t>
+  </si>
+  <si>
+    <t>Westerveld</t>
+  </si>
+  <si>
+    <t>Westervoort</t>
+  </si>
+  <si>
+    <t>Westerwolde</t>
+  </si>
+  <si>
+    <t>Westland</t>
+  </si>
+  <si>
+    <t>Weststellingwerf</t>
+  </si>
+  <si>
+    <t>Westvoorne</t>
+  </si>
+  <si>
+    <t>Wierden</t>
+  </si>
+  <si>
+    <t>Wijchen</t>
+  </si>
+  <si>
+    <t>Wijdemeren</t>
+  </si>
+  <si>
+    <t>Wijk bij Duurstede</t>
+  </si>
+  <si>
+    <t>Winterswijk</t>
+  </si>
+  <si>
+    <t>Woensdrecht</t>
+  </si>
+  <si>
+    <t>Woerden</t>
+  </si>
+  <si>
+    <t>De Wolden</t>
+  </si>
+  <si>
+    <t>Wormerland</t>
+  </si>
+  <si>
+    <t>Woudenberg</t>
+  </si>
+  <si>
+    <t>Zaanstad</t>
+  </si>
+  <si>
+    <t>Zaltbommel</t>
+  </si>
+  <si>
+    <t>Zandvoort</t>
+  </si>
+  <si>
+    <t>Zeewolde</t>
+  </si>
+  <si>
+    <t>Zeist</t>
+  </si>
+  <si>
+    <t>Zevenaar</t>
+  </si>
+  <si>
+    <t>Zoetermeer</t>
+  </si>
+  <si>
+    <t>Zoeterwoude</t>
+  </si>
+  <si>
+    <t>Zuidplas</t>
+  </si>
+  <si>
+    <t>Zundert</t>
+  </si>
+  <si>
+    <t>Zutphen</t>
+  </si>
+  <si>
+    <t>Zwartewaterland</t>
+  </si>
+  <si>
+    <t>Zwijndrecht</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>Voorne aan Zee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1093,9 +1103,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1377,14 +1396,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B347"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="B303" sqref="B303"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1392,2768 +1413,2776 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1680</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>358</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>197</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>482</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>613</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>361</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>141</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>484</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>1723</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>1959</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>307</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>362</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>363</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>200</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>202</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>743</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>744</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>308</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>489</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>203</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>888</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>1954</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>889</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>1945</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>1724</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>893</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>373</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>748</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>1859</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>1721</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>753</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>209</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>375</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>310</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>1728</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>376</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>377</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>1901</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>755</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>1681</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>147</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>654</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>757</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>758</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>501</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>1876</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>213</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>899</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>312</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>313</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>214</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>502</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>383</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>109</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>1706</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>216</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>148</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>1891</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>503</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>762</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>150</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>384</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>1980</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>1774</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>221</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>222</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>766</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>505</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>498</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>1719</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>303</v>
       </c>
       <c r="B76" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>225</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>226</v>
       </c>
       <c r="B78" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>1711</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>385</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>228</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>317</v>
       </c>
       <c r="B82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>1979</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>770</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>1903</v>
       </c>
       <c r="B85" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>772</v>
       </c>
       <c r="B86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>230</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>114</v>
       </c>
       <c r="B88" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>388</v>
       </c>
       <c r="B89" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>153</v>
       </c>
       <c r="B90" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>232</v>
       </c>
       <c r="B91" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>233</v>
       </c>
       <c r="B92" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>777</v>
       </c>
       <c r="B93" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>1940</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>779</v>
       </c>
       <c r="B95" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>1771</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>1652</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>907</v>
       </c>
       <c r="B98" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>784</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>1924</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>664</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>785</v>
       </c>
       <c r="B102" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>1942</v>
       </c>
       <c r="B103" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>512</v>
       </c>
       <c r="B104" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>513</v>
       </c>
       <c r="B105" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>518</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>14</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>1729</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>158</v>
       </c>
       <c r="B109" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>392</v>
       </c>
       <c r="B110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
         <v>394</v>
       </c>
       <c r="B111" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>1655</v>
       </c>
       <c r="B112" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>160</v>
       </c>
       <c r="B113" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>243</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>523</v>
       </c>
       <c r="B115" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>72</v>
       </c>
       <c r="B116" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>244</v>
       </c>
       <c r="B117" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>396</v>
       </c>
       <c r="B118" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>397</v>
       </c>
       <c r="B119" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
         <v>246</v>
       </c>
       <c r="B120" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
         <v>74</v>
       </c>
       <c r="B121" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
         <v>917</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
         <v>1658</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
         <v>399</v>
       </c>
       <c r="B124" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
         <v>400</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
         <v>163</v>
       </c>
       <c r="B126" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
         <v>530</v>
       </c>
       <c r="B127" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
         <v>794</v>
       </c>
       <c r="B128" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
         <v>531</v>
       </c>
       <c r="B129" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
         <v>164</v>
       </c>
       <c r="B130" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
         <v>796</v>
       </c>
       <c r="B131" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
         <v>252</v>
       </c>
       <c r="B132" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>797</v>
       </c>
       <c r="B133" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>534</v>
       </c>
       <c r="B134" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>798</v>
       </c>
       <c r="B135" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>402</v>
       </c>
       <c r="B136" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>1963</v>
       </c>
       <c r="B137" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
         <v>1735</v>
       </c>
       <c r="B138" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
         <v>1966</v>
       </c>
       <c r="B139" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
         <v>1911</v>
       </c>
       <c r="B140" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
         <v>118</v>
       </c>
       <c r="B141" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
         <v>405</v>
       </c>
       <c r="B142" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
         <v>1507</v>
       </c>
       <c r="B143" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
         <v>321</v>
       </c>
       <c r="B144" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="n">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
         <v>406</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="n">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>677</v>
       </c>
       <c r="B146" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="n">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
         <v>353</v>
       </c>
       <c r="B147" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="n">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
         <v>1884</v>
       </c>
       <c r="B148" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="n">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
         <v>166</v>
       </c>
       <c r="B149" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="n">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
         <v>678</v>
       </c>
       <c r="B150" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="n">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
         <v>537</v>
       </c>
       <c r="B151" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="n">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
         <v>928</v>
       </c>
       <c r="B152" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="n">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
         <v>1598</v>
       </c>
       <c r="B153" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="n">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
         <v>542</v>
       </c>
       <c r="B154" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="n">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
         <v>1931</v>
       </c>
       <c r="B155" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="n">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
         <v>1659</v>
       </c>
       <c r="B156" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="n">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
         <v>1982</v>
       </c>
       <c r="B157" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="n">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
         <v>882</v>
       </c>
       <c r="B158" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="n">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
         <v>415</v>
       </c>
       <c r="B159" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="n">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
         <v>1621</v>
       </c>
       <c r="B160" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="n">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
         <v>417</v>
       </c>
       <c r="B161" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="n">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
         <v>80</v>
       </c>
       <c r="B162" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="n">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
         <v>546</v>
       </c>
       <c r="B163" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="n">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
         <v>547</v>
       </c>
       <c r="B164" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="n">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
         <v>1916</v>
       </c>
       <c r="B165" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="n">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
         <v>995</v>
       </c>
       <c r="B166" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="n">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
         <v>1640</v>
       </c>
       <c r="B167" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="n">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
         <v>327</v>
       </c>
       <c r="B168" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="n">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
         <v>1705</v>
       </c>
       <c r="B169" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="n">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
         <v>553</v>
       </c>
       <c r="B170" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="n">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
         <v>262</v>
       </c>
       <c r="B171" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="n">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
         <v>809</v>
       </c>
       <c r="B172" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="n">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
         <v>331</v>
       </c>
       <c r="B173" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="n">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
         <v>168</v>
       </c>
       <c r="B174" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="n">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
         <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="n">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
         <v>1641</v>
       </c>
       <c r="B176" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="n">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
         <v>1991</v>
       </c>
       <c r="B177" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="n">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
         <v>556</v>
       </c>
       <c r="B178" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="n">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
         <v>935</v>
       </c>
       <c r="B179" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="n">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
         <v>420</v>
       </c>
       <c r="B180" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="n">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
         <v>938</v>
       </c>
       <c r="B181" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="n">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
         <v>1948</v>
       </c>
       <c r="B182" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="n">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
         <v>119</v>
       </c>
       <c r="B183" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="n">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
         <v>687</v>
       </c>
       <c r="B184" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="n">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
         <v>1842</v>
       </c>
       <c r="B185" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="n">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
         <v>1731</v>
       </c>
       <c r="B186" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="n">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
         <v>1952</v>
       </c>
       <c r="B187" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="n">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
         <v>1709</v>
       </c>
       <c r="B188" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="n">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
         <v>1978</v>
       </c>
       <c r="B189" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="n">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
         <v>1955</v>
       </c>
       <c r="B190" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="n">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
         <v>335</v>
       </c>
       <c r="B191" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="n">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
         <v>944</v>
       </c>
       <c r="B192" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="n">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
         <v>1740</v>
       </c>
       <c r="B193" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="n">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
         <v>946</v>
       </c>
       <c r="B194" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="n">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
         <v>356</v>
       </c>
       <c r="B195" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="n">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
         <v>569</v>
       </c>
       <c r="B196" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="n">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
         <v>267</v>
       </c>
       <c r="B197" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="n">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
         <v>268</v>
       </c>
       <c r="B198" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="n">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
         <v>1930</v>
       </c>
       <c r="B199" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="n">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
         <v>1970</v>
       </c>
       <c r="B200" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="n">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
         <v>1695</v>
       </c>
       <c r="B201" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="n">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
         <v>1699</v>
       </c>
       <c r="B202" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="n">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
         <v>171</v>
       </c>
       <c r="B203" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="n">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
         <v>575</v>
       </c>
       <c r="B204" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="n">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
         <v>820</v>
       </c>
       <c r="B205" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="n">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
         <v>302</v>
       </c>
       <c r="B206" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="n">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
         <v>579</v>
       </c>
       <c r="B207" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="n">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
         <v>823</v>
       </c>
       <c r="B208" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="n">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
         <v>824</v>
       </c>
       <c r="B209" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="n">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
         <v>1895</v>
       </c>
       <c r="B210" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="n">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
         <v>269</v>
       </c>
       <c r="B211" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="n">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
         <v>173</v>
       </c>
       <c r="B212" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="n">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
         <v>1773</v>
       </c>
       <c r="B213" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="n">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
         <v>175</v>
       </c>
       <c r="B214" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="n">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
         <v>1586</v>
       </c>
       <c r="B215" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="n">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
         <v>826</v>
       </c>
       <c r="B216" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="n">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
         <v>85</v>
       </c>
       <c r="B217" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="n">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
         <v>431</v>
       </c>
       <c r="B218" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="n">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
         <v>432</v>
       </c>
       <c r="B219" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="n">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
         <v>86</v>
       </c>
       <c r="B220" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="n">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
         <v>828</v>
       </c>
       <c r="B221" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="n">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
         <v>1509</v>
       </c>
       <c r="B222" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="n">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
         <v>437</v>
       </c>
       <c r="B223" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="n">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
         <v>589</v>
       </c>
       <c r="B224" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="n">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
         <v>1734</v>
       </c>
       <c r="B225" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="n">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
         <v>590</v>
       </c>
       <c r="B226" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="n">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
         <v>1894</v>
       </c>
       <c r="B227" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="n">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
         <v>765</v>
       </c>
       <c r="B228" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="n">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
         <v>1926</v>
       </c>
       <c r="B229" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="n">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
         <v>439</v>
       </c>
       <c r="B230" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="n">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
         <v>273</v>
       </c>
       <c r="B231" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="n">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
         <v>177</v>
       </c>
       <c r="B232" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="n">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
         <v>703</v>
       </c>
       <c r="B233" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="n">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
         <v>274</v>
       </c>
       <c r="B234" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="n">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
         <v>339</v>
       </c>
       <c r="B235" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="n">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
         <v>1667</v>
       </c>
       <c r="B236" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="n">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
         <v>275</v>
       </c>
       <c r="B237" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="n">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
         <v>340</v>
       </c>
       <c r="B238" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="n">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
         <v>597</v>
       </c>
       <c r="B239" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="n">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
         <v>1742</v>
       </c>
       <c r="B240" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="n">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
         <v>603</v>
       </c>
       <c r="B241" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="n">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
         <v>1669</v>
       </c>
       <c r="B242" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="n">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
         <v>957</v>
       </c>
       <c r="B243" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="n">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
         <v>736</v>
       </c>
       <c r="B244" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="n">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
         <v>1674</v>
       </c>
       <c r="B245" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="n">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
         <v>599</v>
       </c>
       <c r="B246" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="n">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
         <v>277</v>
       </c>
       <c r="B247" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="n">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
         <v>840</v>
       </c>
       <c r="B248" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="n">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
         <v>441</v>
       </c>
       <c r="B249" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="n">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
         <v>279</v>
       </c>
       <c r="B250" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="n">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
         <v>606</v>
       </c>
       <c r="B251" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="n">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
         <v>88</v>
       </c>
       <c r="B252" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" t="n">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
         <v>1676</v>
       </c>
       <c r="B253" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" t="n">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
         <v>965</v>
       </c>
       <c r="B254" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="n">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
         <v>845</v>
       </c>
       <c r="B255" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="n">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
         <v>1883</v>
       </c>
       <c r="B256" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="n">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
         <v>610</v>
       </c>
       <c r="B257" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" t="n">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
         <v>1714</v>
       </c>
       <c r="B258" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="n">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
         <v>90</v>
       </c>
       <c r="B259" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="n">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
         <v>342</v>
       </c>
       <c r="B260" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" t="n">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
         <v>847</v>
       </c>
       <c r="B261" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" t="n">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
         <v>848</v>
       </c>
       <c r="B262" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" t="n">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
         <v>37</v>
       </c>
       <c r="B263" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" t="n">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
         <v>180</v>
       </c>
       <c r="B264" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" t="n">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
         <v>532</v>
       </c>
       <c r="B265" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" t="n">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
         <v>851</v>
       </c>
       <c r="B266" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" t="n">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
         <v>1708</v>
       </c>
       <c r="B267" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" t="n">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
         <v>971</v>
       </c>
       <c r="B268" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="n">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
         <v>1904</v>
       </c>
       <c r="B269" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" t="n">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
         <v>1900</v>
       </c>
       <c r="B270" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" t="n">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
         <v>715</v>
       </c>
       <c r="B271" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" t="n">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
         <v>93</v>
       </c>
       <c r="B272" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" t="n">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
         <v>448</v>
       </c>
       <c r="B273" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" t="n">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
         <v>1525</v>
       </c>
       <c r="B274" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" t="n">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
         <v>716</v>
       </c>
       <c r="B275" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" t="n">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
         <v>281</v>
       </c>
       <c r="B276" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" t="n">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
         <v>855</v>
       </c>
       <c r="B277" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" t="n">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
         <v>183</v>
       </c>
       <c r="B278" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" t="n">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
         <v>1700</v>
       </c>
       <c r="B279" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="n">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
         <v>1730</v>
       </c>
       <c r="B280" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" t="n">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
         <v>737</v>
       </c>
       <c r="B281" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" t="n">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
         <v>450</v>
       </c>
       <c r="B282" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" t="n">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
         <v>451</v>
       </c>
       <c r="B283" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" t="n">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
         <v>184</v>
       </c>
       <c r="B284" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" t="n">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
         <v>344</v>
       </c>
       <c r="B285" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" t="n">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
         <v>1581</v>
       </c>
       <c r="B286" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" t="n">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
         <v>981</v>
       </c>
       <c r="B287" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" t="n">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
         <v>994</v>
       </c>
       <c r="B288" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" t="n">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
         <v>858</v>
       </c>
       <c r="B289" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" t="n">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
         <v>47</v>
       </c>
       <c r="B290" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" t="n">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
         <v>345</v>
       </c>
       <c r="B291" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" t="n">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
         <v>717</v>
       </c>
       <c r="B292" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" t="n">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
         <v>861</v>
       </c>
       <c r="B293" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" t="n">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
         <v>453</v>
       </c>
       <c r="B294" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" t="n">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
         <v>983</v>
       </c>
       <c r="B295" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" t="n">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
         <v>984</v>
       </c>
       <c r="B296" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" t="n">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
         <v>1961</v>
       </c>
       <c r="B297" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" t="n">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
         <v>622</v>
       </c>
       <c r="B298" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" t="n">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
         <v>96</v>
       </c>
       <c r="B299" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" t="n">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
         <v>718</v>
       </c>
       <c r="B300" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" t="n">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
         <v>986</v>
       </c>
       <c r="B301" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" t="n">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
         <v>626</v>
       </c>
       <c r="B302" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" t="n">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>1992</v>
+      </c>
+      <c r="B303" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
         <v>285</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B304" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" t="n">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
         <v>865</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B305" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" t="n">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
         <v>1949</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B306" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" t="n">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
         <v>866</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B307" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" t="n">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
         <v>867</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B308" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" t="n">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
         <v>627</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B309" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" t="n">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
         <v>289</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B310" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" t="n">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
         <v>629</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B311" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" t="n">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
         <v>852</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B312" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" t="n">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
         <v>988</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B313" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" t="n">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
         <v>457</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B314" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" t="n">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
         <v>1960</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B315" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" t="n">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
         <v>668</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B316" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" t="n">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
         <v>1969</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B317" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" t="n">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
         <v>1701</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B318" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" t="n">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
         <v>293</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B319" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" t="n">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
         <v>1950</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B320" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" t="n">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
         <v>1783</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B321" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" t="n">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
         <v>98</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B322" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" t="n">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
         <v>614</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B323" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" t="n">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
         <v>189</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B324" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" t="n">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
         <v>296</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B325" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" t="n">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
         <v>1696</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B326" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" t="n">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
         <v>352</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B327" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" t="n">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
         <v>294</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B328" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" t="n">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
         <v>873</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B329" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" t="n">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
         <v>632</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B330" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" t="n">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
         <v>1690</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B331" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" t="n">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
         <v>880</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B332" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" t="n">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
         <v>351</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B333" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" t="n">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
         <v>479</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B334" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" t="n">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335">
         <v>297</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B335" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" t="n">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336">
         <v>473</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B336" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" t="n">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
         <v>50</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B337" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" t="n">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
         <v>355</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B338" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" t="n">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
         <v>299</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B339" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" t="n">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
         <v>637</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B340" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" t="n">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
         <v>638</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B341" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" t="n">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
         <v>1892</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B342" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" t="n">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
         <v>879</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B343" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" t="n">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
         <v>301</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B344" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" t="n">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
         <v>1896</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B345" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" t="n">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
         <v>642</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B346" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" t="n">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
         <v>193</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B347" t="s">
         <v>346</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>